--- a/mismatch.xlsx
+++ b/mismatch.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usada\my_projects\PDFTextExtraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F98DED-3FD8-4680-B3EA-B77B216B68B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB55EF-2D53-46B1-8A42-572114554D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2910" windowWidth="16200" windowHeight="9308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="match" sheetId="3" r:id="rId1"/>
+    <sheet name="mismatch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,23 +337,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED3D3CD-8901-44DF-ABE4-2EF77C1AB8A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9383" sqref="A1:N9383"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="10" width="6.86328125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1555F1-3353-4E3B-9301-B66E56011CBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70533BB-5467-4F22-BC8C-7C50EC9E29A2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3657" workbookViewId="0">
-      <selection activeCell="A3668" sqref="A1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
